--- a/ab/chitchat-results-osbcoherence.xlsx
+++ b/ab/chitchat-results-osbcoherence.xlsx
@@ -217,10 +217,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$B$10:$S$10</c:f>
+              <c:f>Feuil1!$B$10:$T$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -273,6 +273,9 @@
                   <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1400</c:v>
                 </c:pt>
               </c:numCache>
@@ -280,10 +283,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$12:$S$12</c:f>
+              <c:f>Feuil1!$B$12:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>722.61</c:v>
                 </c:pt>
@@ -333,9 +336,12 @@
                   <c:v>1826.88</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1452.46</c:v>
+                  <c:v>1688.81</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1838.64</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1754.44</c:v>
                 </c:pt>
               </c:numCache>
@@ -378,10 +384,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$B$10:$S$10</c:f>
+              <c:f>Feuil1!$B$10:$T$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -434,6 +440,9 @@
                   <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1400</c:v>
                 </c:pt>
               </c:numCache>
@@ -441,10 +450,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$20:$S$20</c:f>
+              <c:f>Feuil1!$B$20:$T$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1400.97</c:v>
                 </c:pt>
@@ -497,6 +506,9 @@
                   <c:v>1706.39</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1692.67</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1588.09</c:v>
                 </c:pt>
               </c:numCache>
@@ -539,10 +551,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$B$10:$S$10</c:f>
+              <c:f>Feuil1!$B$10:$T$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -595,6 +607,9 @@
                   <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1400</c:v>
                 </c:pt>
               </c:numCache>
@@ -602,10 +617,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$28:$S$28</c:f>
+              <c:f>Feuil1!$B$28:$T$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1779.89</c:v>
                 </c:pt>
@@ -658,6 +673,9 @@
                   <c:v>1739.33</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1703.48</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1628.31</c:v>
                 </c:pt>
               </c:numCache>
@@ -720,10 +738,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$B$26:$S$26</c:f>
+              <c:f>Feuil1!$B$26:$T$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -776,6 +794,9 @@
                   <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1400</c:v>
                 </c:pt>
               </c:numCache>
@@ -783,10 +804,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$11:$S$11</c:f>
+              <c:f>Feuil1!$B$11:$T$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>27.678000000000001</c:v>
                 </c:pt>
@@ -836,9 +857,12 @@
                   <c:v>10.948</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.77</c:v>
+                  <c:v>11.843</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>10.878</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>11.4</c:v>
                 </c:pt>
               </c:numCache>
@@ -882,10 +906,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$B$26:$S$26</c:f>
+              <c:f>Feuil1!$B$26:$T$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -938,6 +962,9 @@
                   <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1400</c:v>
                 </c:pt>
               </c:numCache>
@@ -945,10 +972,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$19:$S$19</c:f>
+              <c:f>Feuil1!$B$19:$T$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>14.276</c:v>
                 </c:pt>
@@ -1001,6 +1028,9 @@
                   <c:v>11.721</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>11.816000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>12.593999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1044,10 +1074,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$B$26:$S$26</c:f>
+              <c:f>Feuil1!$B$26:$T$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1100,6 +1130,9 @@
                   <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1400</c:v>
                 </c:pt>
               </c:numCache>
@@ -1107,10 +1140,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$27:$S$27</c:f>
+              <c:f>Feuil1!$B$27:$T$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>11.237</c:v>
                 </c:pt>
@@ -1163,6 +1196,9 @@
                   <c:v>11.499000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>11.741</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>12.282999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1272,13 +1308,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>752474</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -1590,21 +1626,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S31"/>
+  <dimension ref="A2:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="19" width="5.7109375" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" customWidth="1"/>
+    <col min="5" max="20" width="5.7109375" customWidth="1"/>
+    <col min="21" max="21" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1612,7 +1648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -1636,23 +1672,24 @@
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1676,8 +1713,9 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>10</v>
       </c>
@@ -1730,10 +1768,13 @@
         <v>700</v>
       </c>
       <c r="S10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="T10" s="1">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1786,13 +1827,16 @@
         <v>10.948</v>
       </c>
       <c r="R11" s="7">
-        <v>13.77</v>
+        <v>11.843</v>
       </c>
       <c r="S11" s="7">
+        <v>10.878</v>
+      </c>
+      <c r="T11" s="7">
         <v>11.4</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1845,13 +1889,16 @@
         <v>1826.88</v>
       </c>
       <c r="R12">
-        <v>1452.46</v>
+        <v>1688.81</v>
       </c>
       <c r="S12">
+        <v>1838.64</v>
+      </c>
+      <c r="T12">
         <v>1754.44</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1904,13 +1951,16 @@
         <v>191.583</v>
       </c>
       <c r="R13">
-        <v>481.94299999999998</v>
+        <v>414.49400000000003</v>
       </c>
       <c r="S13">
+        <v>543.88099999999997</v>
+      </c>
+      <c r="T13">
         <v>797.976</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1963,13 +2013,16 @@
         <v>231</v>
       </c>
       <c r="R14">
-        <v>577</v>
+        <v>430</v>
       </c>
       <c r="S14">
+        <v>572</v>
+      </c>
+      <c r="T14">
         <v>822</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2022,13 +2075,16 @@
         <v>269</v>
       </c>
       <c r="R15">
-        <v>639</v>
+        <v>1442</v>
       </c>
       <c r="S15">
+        <v>796</v>
+      </c>
+      <c r="T15">
         <v>1004</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
@@ -2052,8 +2108,9 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>10</v>
       </c>
@@ -2106,10 +2163,13 @@
         <v>700</v>
       </c>
       <c r="S18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="T18" s="1">
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2165,10 +2225,13 @@
         <v>11.721</v>
       </c>
       <c r="S19" s="7">
+        <v>11.816000000000001</v>
+      </c>
+      <c r="T19" s="7">
         <v>12.593999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2224,10 +2287,13 @@
         <v>1706.39</v>
       </c>
       <c r="S20">
+        <v>1692.67</v>
+      </c>
+      <c r="T20">
         <v>1588.09</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -2283,10 +2349,13 @@
         <v>410.22300000000001</v>
       </c>
       <c r="S21">
+        <v>590.78399999999999</v>
+      </c>
+      <c r="T21">
         <v>881.56</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -2342,10 +2411,13 @@
         <v>472</v>
       </c>
       <c r="S22">
+        <v>605</v>
+      </c>
+      <c r="T22">
         <v>904</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -2401,10 +2473,13 @@
         <v>616</v>
       </c>
       <c r="S23">
+        <v>735</v>
+      </c>
+      <c r="T23">
         <v>1002</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>7</v>
       </c>
@@ -2428,8 +2503,9 @@
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>10</v>
       </c>
@@ -2482,10 +2558,13 @@
         <v>700</v>
       </c>
       <c r="S26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="T26" s="1">
         <v>1400</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2541,10 +2620,13 @@
         <v>11.499000000000001</v>
       </c>
       <c r="S27" s="7">
+        <v>11.741</v>
+      </c>
+      <c r="T27" s="7">
         <v>12.282999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2600,10 +2682,13 @@
         <v>1739.33</v>
       </c>
       <c r="S28">
+        <v>1703.48</v>
+      </c>
+      <c r="T28">
         <v>1628.31</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2659,10 +2744,13 @@
         <v>402.45299999999997</v>
       </c>
       <c r="S29">
+        <v>587.03399999999999</v>
+      </c>
+      <c r="T29">
         <v>859.78899999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -2718,10 +2806,13 @@
         <v>447</v>
       </c>
       <c r="S30">
+        <v>630</v>
+      </c>
+      <c r="T30">
         <v>920</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -2777,15 +2868,18 @@
         <v>481</v>
       </c>
       <c r="S31">
+        <v>674</v>
+      </c>
+      <c r="T31">
         <v>1027</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B9:S9"/>
-    <mergeCell ref="B17:S17"/>
-    <mergeCell ref="B25:S25"/>
-    <mergeCell ref="B4:S4"/>
+    <mergeCell ref="B9:T9"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="B25:T25"/>
+    <mergeCell ref="B4:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
